--- a/Bang_phan_cong.xlsx
+++ b/Bang_phan_cong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PhuThinh/Desktop/Frontend_bootcamp/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PhuThinh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52AC675-C522-4243-85DC-BBD68E8C39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B2946-7B8B-8644-9CB7-00243B24CBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Châu</t>
-  </si>
-  <si>
-    <t>Another Tasks</t>
   </si>
 </sst>
 </file>
@@ -375,18 +372,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -648,7 +634,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -1019,33 +1005,15 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="20">
-        <v>45261</v>
-      </c>
-      <c r="C13" s="20">
-        <v>45276</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="20">
-        <v>45277</v>
-      </c>
-      <c r="G13" s="20">
-        <v>45277</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,28 +2001,23 @@
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D12 D14">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D14">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9 H14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="H4:H14">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
